--- a/scripts/data/data_bak.xlsx
+++ b/scripts/data/data_bak.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\107 - COOLNAILS1 - LLDW07\bak\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khoa\Nail\163 - Legacy Nail Spa\163 - LEGACY NAIL SPA - LLDW10\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD59D1D-9E40-431A-9A28-5DE974A41657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4992" windowWidth="13176" windowHeight="22536" tabRatio="482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="482"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="BA_ItemMaster">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">Services!$A$2:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -177,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
@@ -297,7 +296,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -309,7 +308,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,10 +354,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -721,18 +719,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.7109375" style="13" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.140625" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="29" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1" collapsed="1"/>
@@ -744,18 +742,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,26 +780,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C3" s="14" t="str">
         <f>B3</f>
         <v>Full Set</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="str">
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="str">
         <f>D3</f>
         <v>$30+</v>
       </c>
@@ -811,24 +809,24 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="14" t="str">
         <f>B4</f>
         <v>Fills</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <f>D4</f>
         <v>20</v>
       </c>
@@ -838,24 +836,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="14" t="str">
         <f t="shared" ref="C5:C24" si="1">B5</f>
         <v>Manicure</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" ref="G5:G24" si="2">D5</f>
         <v>18</v>
       </c>
@@ -865,24 +863,24 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="str">
+      <c r="C6" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Spa Pedicure</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -892,24 +890,24 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Manicure &amp; Spa Pedicure</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>40</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -919,24 +917,24 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Men's Pedicure</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>35</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
@@ -946,24 +944,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Men's Pedicure &amp; Manicure</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -973,24 +971,24 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="15" t="str">
+      <c r="C10" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Manicure Gel Or Shellac Nails</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>30</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -1000,24 +998,24 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Dip Gel, ANC, SNS</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>37</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
@@ -1027,24 +1025,24 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Dip Gel Pink &amp; White</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>40</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -1054,24 +1052,24 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Pink &amp; White</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>45</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -1081,24 +1079,24 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="15" t="str">
+      <c r="C14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Pink &amp; White Fills</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>40</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -1108,24 +1106,24 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Liquid Gel</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>50</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -1135,24 +1133,24 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Liquid Gel Fills</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>40</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -1162,24 +1160,24 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Tip Overlay</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>30</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -1189,24 +1187,24 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Nail Repair</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>5</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1216,24 +1214,24 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Nail Removal</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1243,24 +1241,24 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C20" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Cut Down</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>2</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -1270,24 +1268,24 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Polish Change</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>10</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1297,24 +1295,24 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Gel Color Change</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>20</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -1324,24 +1322,24 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C23" s="14" t="str">
         <f t="shared" si="1"/>
         <v>Gel Color Change Toes</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>20</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -1351,24 +1349,24 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>3D Design</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>5</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1378,80 +1376,80 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="19" t="str">
+      <c r="C25" s="18" t="str">
         <f>B25</f>
         <v>Hand Design</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>5</v>
       </c>
-      <c r="E25" s="16">
-        <v>1</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
         <f>D25</f>
         <v>5</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C26" s="14" t="str">
         <f>B26</f>
         <v>Eyebrow</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
         <f>D26</f>
         <v>10</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="14" t="str">
         <f t="shared" ref="C27:C35" si="3">B27</f>
         <v>Men's Eyebrow</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
         <f>D27</f>
         <v>10</v>
       </c>
@@ -1461,24 +1459,24 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Lip</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>6</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" ref="G28:G35" si="4">D28</f>
         <v>6</v>
       </c>
@@ -1488,24 +1486,24 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Chin</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -1515,24 +1513,24 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Sideburn</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>10</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -1542,24 +1540,24 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="15" t="str">
+      <c r="C31" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Arm</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>30</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -1569,24 +1567,24 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="15" t="str">
+      <c r="C32" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Underarm</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>20</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -1595,25 +1593,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Lower Leg</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>30</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -1622,25 +1620,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Thing</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>30</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -1649,25 +1647,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="19" t="str">
+      <c r="C35" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Eyelash Extensions</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <v>50</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
@@ -1678,7 +1676,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>

--- a/scripts/data/data_bak.xlsx
+++ b/scripts/data/data_bak.xlsx
@@ -725,7 +725,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
